--- a/dateArr/date.xlsx
+++ b/dateArr/date.xlsx
@@ -1924,11 +1924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275866760"/>
-        <c:axId val="275869896"/>
+        <c:axId val="475087424"/>
+        <c:axId val="475087816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275866760"/>
+        <c:axId val="475087424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,12 +1985,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275869896"/>
+        <c:crossAx val="475087816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275869896"/>
+        <c:axId val="475087816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2047,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275866760"/>
+        <c:crossAx val="475087424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3297,11 +3297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275865976"/>
-        <c:axId val="275870288"/>
+        <c:axId val="475088600"/>
+        <c:axId val="475088992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275865976"/>
+        <c:axId val="475088600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,12 +3358,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275870288"/>
+        <c:crossAx val="475088992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275870288"/>
+        <c:axId val="475088992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3420,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275865976"/>
+        <c:crossAx val="475088600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4670,11 +4670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275864016"/>
-        <c:axId val="275863624"/>
+        <c:axId val="475089776"/>
+        <c:axId val="475090168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275864016"/>
+        <c:axId val="475089776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,12 +4731,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275863624"/>
+        <c:crossAx val="475090168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275863624"/>
+        <c:axId val="475090168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4793,7 +4793,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275864016"/>
+        <c:crossAx val="475089776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5509,11 +5509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="275863232"/>
-        <c:axId val="275865192"/>
+        <c:axId val="475090952"/>
+        <c:axId val="475091344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="275863232"/>
+        <c:axId val="475090952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5556,7 +5556,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275865192"/>
+        <c:crossAx val="475091344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5564,7 +5564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="275865192"/>
+        <c:axId val="475091344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5615,7 +5615,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275863232"/>
+        <c:crossAx val="475090952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6299,11 +6299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281500848"/>
-        <c:axId val="281506336"/>
+        <c:axId val="475093696"/>
+        <c:axId val="475094088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281500848"/>
+        <c:axId val="475093696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6390,12 +6390,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281506336"/>
+        <c:crossAx val="475094088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281506336"/>
+        <c:axId val="475094088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6483,7 +6483,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281500848"/>
+        <c:crossAx val="475093696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7205,11 +7205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="281500064"/>
-        <c:axId val="281504376"/>
+        <c:axId val="475095264"/>
+        <c:axId val="475095656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="281500064"/>
+        <c:axId val="475095264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7252,7 +7252,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281504376"/>
+        <c:crossAx val="475095656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7260,7 +7260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281504376"/>
+        <c:axId val="475095656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7311,7 +7311,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281500064"/>
+        <c:crossAx val="475095264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11147,7 +11147,7 @@
   <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
